--- a/docs/ValueSet-VSTipoEventoTEI.xlsx
+++ b/docs/ValueSet-VSTipoEventoTEI.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T18:02:15-03:00</t>
+    <t>2025-09-30T00:48:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-VSTipoEventoTEI.xlsx
+++ b/docs/ValueSet-VSTipoEventoTEI.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T00:48:00-03:00</t>
+    <t>2025-10-01T13:03:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-VSTipoEventoTEI.xlsx
+++ b/docs/ValueSet-VSTipoEventoTEI.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T13:03:17-03:00</t>
+    <t>2025-10-07T23:46:48-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
